--- a/Benchmark AD Tools/benchmark/ComputeDerivativesSumary.xlsx
+++ b/Benchmark AD Tools/benchmark/ComputeDerivativesSumary.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIT CONSULTING\Desktop\TF\Test\Benchmark AD Tools\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Test\Benchmark AD Tools\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F016BD7D-2667-4752-B102-F75AF3048FD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C456C-7045-4744-8080-9DE7390B5517}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumary" sheetId="1" r:id="rId1"/>
+    <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>A_Function</t>
   </si>
@@ -96,6 +97,9 @@
   <si>
     <t>Symbolic time</t>
   </si>
+  <si>
+    <t>N°</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -161,6 +165,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -177,6 +187,2849 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t>Numerical Performance of Differentiation Techniques </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analitical solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>142.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.51771538367151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30.588799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4330009728239641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14130297.444786681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0338033110083181E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30947.555555555551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.51771538367151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142691.7510824541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.414461263533624</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.558399909918854E+16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.9445843308367106E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>761127763968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92FB-46B4-821A-3F047F1EE3EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finite differences solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>142.56000002887961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.51771538377267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30.58879999429109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.00000000160999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4330009728003019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514240.0000186169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14130297.44429514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.033228115289138E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30947.5555550307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.51771538377267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142691.751301754</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.41446126352063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5583999129968752E+16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.944584331562603E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>761127764041.90063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92FB-46B4-821A-3F047F1EE3EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autograd solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>142.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.51771538367151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30.588799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4330009728239641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14130297.444786681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.033228115235921E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30947.555555555551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.51771538367151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1142691.7510824541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.414461263533624</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.558399909918854E+16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.9445843308367106E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>761127763968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-92FB-46B4-821A-3F047F1EE3EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507135128"/>
+        <c:axId val="507135456"/>
+        <c:axId val="511596048"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="507135128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507135456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507135456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507135128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="511596048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="507135456"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Numerical Performance of Differentiation Techniques </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F_Analitical time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.0067901611328117E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.100799560546875E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0531158447265617E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0994415283203121E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6941299438476559E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1457672119140621E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4080276489257809E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5974044799804691E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0531158447265617E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4093856811523438E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.192092895507812E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3126602172851559E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.096725463867188E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.192092895507812E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0531158447265617E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22DE-4C58-AB77-6CA9BA728436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Finite differences time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.1961669921875E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8160552978515618E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2901763916015618E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6001205444335938E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8862228393554688E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6941299438476559E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8862228393554688E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.719329833984375E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0040740966796878E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7922134399414063E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6001205444335938E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9815902709960938E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4093856811523438E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.719329833984375E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0994415283203118E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22DE-4C58-AB77-6CA9BA728436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autograd time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.5193901062011719E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9288063049316409E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3511390686035162E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.329681396484375E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.440048217773438E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.70025634765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9696693420410162E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.92913818359375E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.499984741210938E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0599365234375E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.129409790039062E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.478195190429688E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.959800720214844E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4679641723632813E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.168914794921875E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22DE-4C58-AB77-6CA9BA728436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sumary!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Symbolic time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sumary!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sumary!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.3996114730834961E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3599605560302726E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.503705978393555E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.344940185546875E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5620460510253911E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1934041976928709E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3110847473144531E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4828920364379879E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1979503631591797E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2220306396484375E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8930644989013672E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.822233200073242E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.712799072265625E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4888725280761719E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2034177780151371E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-22DE-4C58-AB77-6CA9BA728436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="507163664"/>
+        <c:axId val="507164320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="507163664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507164320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507164320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507163664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECC58EF-00EE-4C19-A3B9-7EE12989C3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDB526F-709C-457D-85D1-84B124EC48D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,24 +3355,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" activeCellId="1" sqref="A1:A16 G1:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,9 +3404,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -580,9 +3436,9 @@
         <v>2.3996114730834961E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -612,9 +3468,9 @@
         <v>4.3599605560302726E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -644,9 +3500,9 @@
         <v>1.503705978393555E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -676,9 +3532,9 @@
         <v>4.344940185546875E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -708,9 +3564,9 @@
         <v>2.5620460510253911E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -740,9 +3596,9 @@
         <v>1.1934041976928709E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -772,9 +3628,9 @@
         <v>4.3110847473144531E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -804,9 +3660,9 @@
         <v>1.4828920364379879E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -836,9 +3692,9 @@
         <v>9.1979503631591797E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -868,9 +3724,9 @@
         <v>9.2220306396484375E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -900,9 +3756,9 @@
         <v>4.8930644989013672E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -932,9 +3788,9 @@
         <v>1.822233200073242E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
@@ -964,9 +3820,9 @@
         <v>1.712799072265625E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -996,9 +3852,9 @@
         <v>5.4888725280761719E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -1030,5 +3886,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56B5773-30CA-4B03-A81B-30C6D2CAC524}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Benchmark AD Tools/benchmark/ComputeDerivativesSumary.xlsx
+++ b/Benchmark AD Tools/benchmark/ComputeDerivativesSumary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Test\Benchmark AD Tools\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIT CONSULTING\Desktop\TF\Test\Benchmark AD Tools\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C456C-7045-4744-8080-9DE7390B5517}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862646C-AAAB-4C99-9E9E-A29039690EF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumary" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -739,6 +739,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -773,7 +828,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507135456"/>
@@ -804,6 +859,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Solution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -832,7 +942,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507135128"/>
@@ -887,7 +997,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -924,7 +1034,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1008,16 +1118,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-419"/>
@@ -1063,7 +1170,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1656,6 +1763,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1690,7 +1852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507164320"/>
@@ -1721,6 +1883,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1749,7 +1971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="507163664"/>
@@ -1791,7 +2013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1828,7 +2050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2962,9 +3184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3355,24 +3577,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="A1:A16 G1:J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -3404,7 +3624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3436,7 +3656,7 @@
         <v>2.3996114730834961E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3468,7 +3688,7 @@
         <v>4.3599605560302726E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3500,7 +3720,7 @@
         <v>1.503705978393555E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3532,7 +3752,7 @@
         <v>4.344940185546875E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3564,7 +3784,7 @@
         <v>2.5620460510253911E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3596,7 +3816,7 @@
         <v>1.1934041976928709E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3628,7 +3848,7 @@
         <v>4.3110847473144531E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3660,7 +3880,7 @@
         <v>1.4828920364379879E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3692,7 +3912,7 @@
         <v>9.1979503631591797E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3724,7 +3944,7 @@
         <v>9.2220306396484375E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3756,7 +3976,7 @@
         <v>4.8930644989013672E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3788,7 +4008,7 @@
         <v>1.822233200073242E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3820,7 +4040,7 @@
         <v>1.712799072265625E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3852,7 +4072,7 @@
         <v>5.4888725280761719E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3894,11 +4114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56B5773-30CA-4B03-A81B-30C6D2CAC524}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
